--- a/benchmarks/benchmarks.xlsx
+++ b/benchmarks/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioacamelogomez/Dropbox/covid-optimization/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A70AA3D0-8CE1-0A45-9C25-23EA5C8DC390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46101DC2-2091-B14B-A6BE-9D91D71AA198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" xr2:uid="{A8989C21-E939-E041-92DA-83E7DC14C2C9}"/>
+    <workbookView xWindow="4360" yWindow="3200" windowWidth="27640" windowHeight="16940" xr2:uid="{A8989C21-E939-E041-92DA-83E7DC14C2C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Optimal Value</t>
+  </si>
+  <si>
+    <t>10% Infected - 1000 A&amp;M Tests - 181 Days</t>
+  </si>
+  <si>
+    <t>Gradient - Static Policy - Bouncing</t>
+  </si>
+  <si>
+    <t>Gradient - Static Policy - No Bouncing</t>
+  </si>
+  <si>
+    <t>Gradient - Dynamic Policy - No Bouncing</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +399,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2F182D-2C94-5A43-9FA0-BFE1CD94C611}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>58460070356.962502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>53504252734.088699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>62784977563.075302</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>